--- a/public/files/Data_By_Towns_Index/Middlesex/Plainsboro Township.xlsx
+++ b/public/files/Data_By_Towns_Index/Middlesex/Plainsboro Township.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>40.326434</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.55291749999999</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>40.3262584</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.5624443</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>40.34985229999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.5843852</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>40.3354477</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.5570386</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>40.330364</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.61186839999999</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>40.33209189999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.60880100000001</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>40.3262612</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.56163889999999</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>40.3276356</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-74.55066219999999</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>40.3403043</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-74.56049399999999</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +773,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>40.327508</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.561785</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +804,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>40.3268722</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-74.5690163</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +835,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>40.3345251</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-74.59145509999999</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +866,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>40.327896</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-74.6138756</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +897,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>40.3312453</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-74.55210389999999</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -829,9 +928,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>40.3295306</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-74.565844</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,9 +959,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>40.32837</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-74.563779</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -879,9 +990,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>40.328814</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-74.6112631</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,9 +1021,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>40.3300145</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-74.6116237</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -929,9 +1052,15 @@
           <t>Goswami</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>40.3544105</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-74.5803104</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -954,9 +1083,15 @@
           <t>Goswami</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>40.3354904</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-74.55431519999999</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -979,9 +1114,15 @@
           <t>Goswami</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>40.3311381</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-74.6079031</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1004,9 +1145,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>40.323689</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-74.5544877</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1029,9 +1176,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>40.3354872</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-74.5537202</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1054,9 +1207,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>40.3375204</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-74.5569241</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1079,9 +1238,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>40.3309728</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-74.60840639999999</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1104,9 +1269,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>40.3283832</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-74.60520609999999</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1129,9 +1300,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>40.3255622</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-74.55392189999999</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1154,9 +1331,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>40.3285364</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-74.56564569999999</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,9 +1362,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>40.329726</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-74.56427100000001</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1204,9 +1393,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>40.3258479</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-74.55993269999999</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1229,9 +1424,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>40.3416065</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-74.55862929999999</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1254,9 +1455,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>40.3335712</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-74.5770794</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1279,9 +1486,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>40.3349452</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-74.59869619999999</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1304,9 +1517,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>40.3285994</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-74.61148709999999</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1329,9 +1548,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>40.3330752</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-74.55642399999999</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1354,9 +1579,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>40.3297613</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-74.5642302</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1379,9 +1610,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>40.32655949999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-74.5697163</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1404,9 +1641,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>40.3232776</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-74.55784229999999</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1429,9 +1672,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>40.3312661</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-74.5764969</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1454,9 +1703,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>40.3339841</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-74.5724977</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1479,9 +1734,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>40.32959839999999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-74.61285169999999</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1504,9 +1765,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>40.3343719</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-74.59226699999999</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1529,9 +1796,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>40.3382719</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-74.56186699999999</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1554,9 +1827,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>40.3283029</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-74.61238299999999</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1579,9 +1858,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>40.3275892</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-74.5521914</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1604,9 +1889,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>40.3525736</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-74.586342</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1629,9 +1920,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>40.3252787</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-74.5692583</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1654,9 +1951,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>40.3247742</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-74.5580291</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1679,9 +1982,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>40.3293529</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-74.6111059</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1704,9 +2013,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>40.3302854</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-74.5950081</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1729,9 +2044,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>40.322776</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-74.5798755</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1754,9 +2075,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>40.3237981</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-74.5542631</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1779,9 +2106,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>40.3565252</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-74.58035099999999</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1804,9 +2137,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>40.3237209</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-74.5561508</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1829,9 +2168,15 @@
           <t>Kapadia</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>40.3377144</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-74.5859554</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1854,9 +2199,15 @@
           <t>Kapadia</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>40.3313508</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-74.6110704</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1879,9 +2230,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>40.3256773</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-74.5608926</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1904,9 +2261,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>40.33158359999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-74.59782969999999</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1929,9 +2292,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>40.3570175</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-74.5822057</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1954,9 +2323,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>40.3237489</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-74.5561306</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1979,9 +2354,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>40.3502845</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-74.58336079999999</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2004,9 +2385,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>40.3088273</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-74.56737269999999</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2029,9 +2416,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>40.3319456</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-74.57590789999999</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2054,9 +2447,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>40.3250922</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-74.5521217</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2079,9 +2478,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>40.351439</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-74.623316</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2104,9 +2509,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>40.3281999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-74.5798695</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2129,9 +2540,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>40.3336744</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-74.5784341</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2154,9 +2571,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>40.3549947</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-74.58238060000001</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2179,9 +2602,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>40.3336656</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-74.54984089999999</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2204,9 +2633,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>40.3337242</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-74.59111</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2229,9 +2664,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>40.3240319</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-74.6076094</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2254,9 +2695,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>40.3573829</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-74.5797408</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2279,9 +2726,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>40.3257036</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-74.5609698</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2304,9 +2757,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>40.3324824</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-74.5998</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2329,9 +2788,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>40.3513899</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-74.6197392</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2354,9 +2819,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>40.3263081</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-74.5517504</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2379,9 +2850,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>40.3277983</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-74.55000509999999</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2404,9 +2881,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>40.3281739</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-74.5652297</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2429,9 +2912,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F80" t="n">
+        <v>40.3281921</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-74.5660599</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2454,9 +2943,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>40.3294357</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-74.5634652</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2479,9 +2974,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F82" t="n">
+        <v>40.332586</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-74.57396899999999</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2504,9 +3005,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>40.320143</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-74.591362</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2529,9 +3036,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>40.3286036</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-74.5520463</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2554,9 +3067,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F85" t="n">
+        <v>40.3252381</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-74.5532437</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2579,9 +3098,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F86" t="n">
+        <v>40.3245693</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-74.55568269999999</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2604,9 +3129,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F87" t="n">
+        <v>40.3268808</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-74.5662488</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2629,9 +3160,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F88" t="n">
+        <v>40.3312653</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-74.57668129999999</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2654,9 +3191,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F89" t="n">
+        <v>40.3523949</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-74.61943309999999</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2679,9 +3222,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F90" t="n">
+        <v>40.3296594</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-74.54677359999999</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2704,9 +3253,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>40.3297272</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-74.5654705</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2729,9 +3284,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F92" t="n">
+        <v>40.3291111</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-74.56413309999999</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2754,9 +3315,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F93" t="n">
+        <v>40.32843159999999</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-74.5646117</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2779,9 +3346,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F94" t="n">
+        <v>40.32411</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-74.5539706</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2804,9 +3377,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F95" t="n">
+        <v>40.323442</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-74.55779099999999</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2829,9 +3408,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>40.326806</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-74.552655</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2854,9 +3439,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>40.3310103</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-74.54960199999999</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2879,9 +3470,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F98" t="n">
+        <v>40.3271968</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-74.5696925</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2904,9 +3501,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>40.325193</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-74.5531369</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2929,9 +3532,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F100" t="n">
+        <v>40.3314251</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-74.5968299</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2954,9 +3563,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F101" t="n">
+        <v>40.328339</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-74.6109812</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2979,9 +3594,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F102" t="n">
+        <v>40.3339881</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-74.5727162</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -3004,9 +3625,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F103" t="n">
+        <v>40.3294281</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-74.56152709999999</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -3029,9 +3656,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F104" t="n">
+        <v>40.3544708</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-74.6194515</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -3054,9 +3687,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F105" t="n">
+        <v>40.3287322</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-74.6139699</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -3079,9 +3718,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>40.3214246</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-74.58137769999999</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -3104,9 +3749,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F107" t="n">
+        <v>40.3309984</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-74.5758032</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -3129,9 +3780,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F108" t="n">
+        <v>40.3237927</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-74.5576021</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -3154,9 +3811,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F109" t="n">
+        <v>40.3294392</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-74.6123595</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -3179,9 +3842,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F110" t="n">
+        <v>40.3322118</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-74.6115212</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -3204,9 +3873,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>40.3259934</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-74.5604532</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -3229,9 +3904,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F112" t="n">
+        <v>40.3295839</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-74.56348029999999</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -3254,9 +3935,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F113" t="n">
+        <v>40.3233737</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-74.55783149999999</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -3279,9 +3966,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F114" t="n">
+        <v>40.3272763</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-74.5692698</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -3304,9 +3997,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F115" t="n">
+        <v>40.3338311</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-74.54859379999999</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -3329,9 +4028,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F116" t="n">
+        <v>40.35535660000001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-74.6236036</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -3354,9 +4059,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F117" t="n">
+        <v>40.3186545</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-74.57832150000002</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -3379,9 +4090,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F118" t="n">
+        <v>40.3334829</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-74.5733085</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -3404,9 +4121,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F119" t="n">
+        <v>40.3322609</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-74.6075195</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -3429,9 +4152,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F120" t="n">
+        <v>40.3212127</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-74.575529</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -3454,9 +4183,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F121" t="n">
+        <v>40.3216089</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-74.57940239999999</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -3479,9 +4214,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F122" t="n">
+        <v>40.3336471</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-74.55378039999999</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -3504,9 +4245,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F123" t="n">
+        <v>40.327985</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-74.56182130000001</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -3529,9 +4276,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F124" t="n">
+        <v>40.32547659999999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-74.5651005</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -3554,9 +4307,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F125" t="n">
+        <v>40.3266122</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-74.5676108</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -3579,9 +4338,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F126" t="n">
+        <v>40.3338845</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-74.55685179999999</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -3604,9 +4369,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F127" t="n">
+        <v>40.3307927</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-74.58394699999999</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -3629,9 +4400,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F128" t="n">
+        <v>40.3284069</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-74.5622769</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -3654,9 +4431,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F129" t="n">
+        <v>40.3254696</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-74.5591146</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -3679,9 +4462,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F130" t="n">
+        <v>40.3504935</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-74.62045880000001</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -3704,9 +4493,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F131" t="n">
+        <v>40.33258379999999</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-74.57329779999999</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -3729,9 +4524,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F132" t="n">
+        <v>40.31978</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-74.59058399999999</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -3754,9 +4555,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F133" t="n">
+        <v>40.3271931</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-74.5524193</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -3779,9 +4586,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F134" t="n">
+        <v>40.3331704</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-74.57859429999999</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -3804,9 +4617,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F135" t="n">
+        <v>40.33136</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-74.57496089999999</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -3829,9 +4648,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F136" t="n">
+        <v>40.332459</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-74.6014251</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -3854,9 +4679,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F137" t="n">
+        <v>40.3306485</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-74.55659159999999</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -3879,9 +4710,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F138" t="n">
+        <v>40.3253233</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-74.55332159999999</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -3904,9 +4741,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F139" t="n">
+        <v>40.3269667</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-74.5506633</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -3929,9 +4772,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F140" t="n">
+        <v>40.3273709</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-74.5496041</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -3954,9 +4803,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F141" t="n">
+        <v>40.3275143</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-74.5494865</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -3979,9 +4834,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F142" t="n">
+        <v>40.3343571</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-74.57836979999999</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -4004,9 +4865,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F143" t="n">
+        <v>40.3254051</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-74.56003629999999</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -4029,9 +4896,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F144" t="n">
+        <v>40.349547</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-74.6218391</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
@@ -4054,9 +4927,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F145" t="n">
+        <v>40.3267199</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-74.55281959999999</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -4079,9 +4958,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F146" t="n">
+        <v>40.3567338</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-74.57709609999999</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -4104,9 +4989,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F147" t="n">
+        <v>40.331096</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-74.59590919999999</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -4129,9 +5020,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F148" t="n">
+        <v>40.3337974</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-74.57399839999999</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -4154,9 +5051,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F149" t="n">
+        <v>40.3344221</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-74.5566084</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -4179,9 +5082,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F150" t="n">
+        <v>40.33066240000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-74.5513352</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -4204,9 +5113,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F151" t="n">
+        <v>40.33145349999999</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-74.55786999999999</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -4229,9 +5144,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F152" t="n">
+        <v>40.3282459</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-74.55122419999999</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -4254,9 +5175,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F153" t="n">
+        <v>40.3277112</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-74.5586302</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
@@ -4279,9 +5206,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F154" t="n">
+        <v>40.3325553</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-74.5733206</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -4304,9 +5237,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F155" t="n">
+        <v>40.3254749</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-74.56676330000001</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -4329,9 +5268,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F156" t="n">
+        <v>40.3294673</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-74.6049948</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
@@ -4354,9 +5299,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F157" t="n">
+        <v>40.325932</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-74.551845</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -4379,9 +5330,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F158" t="n">
+        <v>40.3377821</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-74.5884138</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
@@ -4404,9 +5361,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F159" t="n">
+        <v>40.3209534</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-74.57639759999999</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -4429,9 +5392,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F160" t="n">
+        <v>40.3311878</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-74.55782219999999</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -4454,9 +5423,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F161" t="n">
+        <v>40.3389924</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-74.58900469999999</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
@@ -4479,9 +5454,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F162" t="n">
+        <v>40.330252</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-74.564448</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
@@ -4504,9 +5485,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F163" t="n">
+        <v>40.3275082</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-74.5494145</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
@@ -4529,9 +5516,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F164" t="n">
+        <v>40.3542546</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-74.5864134</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
@@ -4554,9 +5547,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F165" t="n">
+        <v>40.3315754</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-74.574494</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
@@ -4579,9 +5578,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F166" t="n">
+        <v>40.332291</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-74.5774528</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
@@ -4604,9 +5609,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F167" t="n">
+        <v>40.3321238</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-74.57498869999999</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
@@ -4629,9 +5640,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F168" t="n">
+        <v>40.3426779</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-74.5730227</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
@@ -4654,9 +5671,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F169" t="n">
+        <v>40.331956</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-74.6103571</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
@@ -4679,9 +5702,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F170" t="n">
+        <v>40.3294969</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-74.5617235</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
@@ -4704,9 +5733,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F171" t="n">
+        <v>40.3380875</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-74.5873807</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
@@ -4729,9 +5764,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F172" t="n">
+        <v>40.3263144</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-74.5681888</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
@@ -4754,9 +5795,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F173" t="n">
+        <v>40.3178497</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-74.5949505</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
@@ -4779,9 +5826,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F174" t="n">
+        <v>40.3277718</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-74.5586181</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
@@ -4804,9 +5857,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F175" t="n">
+        <v>40.3252072</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-74.55199089999999</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
@@ -4829,9 +5888,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F176" t="n">
+        <v>40.3286986</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-74.5532671</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
@@ -4854,9 +5919,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F177" t="n">
+        <v>40.3280576</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-74.5523379</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
@@ -4879,9 +5950,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F178" t="n">
+        <v>40.3253247</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-74.5598492</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
@@ -4904,9 +5981,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F179" t="n">
+        <v>40.3257608</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-74.56490429999999</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
@@ -4929,9 +6012,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F180" t="n">
+        <v>40.3510011</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-74.5820124</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
@@ -4954,9 +6043,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F181" t="n">
+        <v>40.3330139</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-74.54922209999999</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
@@ -4979,9 +6074,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F182" t="n">
+        <v>40.3312281</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-74.606364</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
@@ -5004,9 +6105,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F183" t="n">
+        <v>40.3270197</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-74.55260389999999</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
@@ -5029,9 +6136,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F184" t="n">
+        <v>40.3577008</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-74.5886788</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
@@ -5054,9 +6167,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F185" t="n">
+        <v>40.3260771</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-74.5527572</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
@@ -5079,9 +6198,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F186" t="n">
+        <v>40.3244001</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-74.5577771</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
@@ -5104,9 +6229,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F187" t="n">
+        <v>40.355023</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-74.61597490000001</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
@@ -5129,9 +6260,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F188" t="n">
+        <v>40.3236463</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-74.5562764</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
@@ -5154,9 +6291,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F189" t="n">
+        <v>40.3278662</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-74.550117</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
@@ -5179,9 +6322,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F190" t="n">
+        <v>40.3275856</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-74.5506314</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
@@ -5204,9 +6353,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F191" t="n">
+        <v>40.3273815</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-74.55187740000001</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
@@ -5229,9 +6384,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F192" t="n">
+        <v>40.3312631</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-74.60222929999999</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
@@ -5254,9 +6415,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F193" t="n">
+        <v>40.330814</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-74.564824</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
@@ -5279,9 +6446,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F194" t="n">
+        <v>40.3552016</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-74.6158918</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
@@ -5304,9 +6477,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F195" t="n">
+        <v>40.3280997</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-74.5509134</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
@@ -5329,9 +6508,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F196" t="n">
+        <v>40.3277952</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-74.6118063</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
@@ -5354,9 +6539,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F197" t="n">
+        <v>40.3419454</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-74.57299549999999</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
@@ -5379,9 +6570,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F198" t="n">
+        <v>40.3201165</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-74.5931823</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
@@ -5404,9 +6601,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F199" t="n">
+        <v>40.3316086</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-74.574563</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
@@ -5429,9 +6632,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F200" t="n">
+        <v>40.3266546</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-74.5635657</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
@@ -5454,9 +6663,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F201" t="n">
+        <v>40.3294288</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-74.5470795</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
@@ -5479,9 +6694,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F202" t="n">
+        <v>40.3279439</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-74.61286749999999</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
@@ -5504,9 +6725,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F203" t="n">
+        <v>40.3416602</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-74.5498755</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
@@ -5529,9 +6756,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F204" t="n">
+        <v>40.3288314</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-74.6048552</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
@@ -5554,9 +6787,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F205" t="n">
+        <v>40.3265079</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-74.55224059999999</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
@@ -5579,9 +6818,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F206" t="n">
+        <v>40.3253276</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-74.56575719999999</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
@@ -5604,9 +6849,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F207" t="n">
+        <v>40.3289424</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-74.565884</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
@@ -5629,9 +6880,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F208" t="n">
+        <v>40.3336224</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-74.5519128</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
@@ -5654,9 +6911,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F209" t="n">
+        <v>40.3225296</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-74.5788239</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
@@ -5679,9 +6942,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F210" t="n">
+        <v>40.3285878</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-74.61275839999999</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
@@ -5704,9 +6973,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F211" t="n">
+        <v>40.316742</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-74.578462</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
@@ -5729,9 +7004,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F212" t="n">
+        <v>40.3259751</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-74.55110479999999</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
@@ -5754,9 +7035,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F213" t="n">
+        <v>40.3174437</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-74.5672273</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
@@ -5779,9 +7066,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F214" t="n">
+        <v>40.329287</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-74.6132277</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
@@ -5804,9 +7097,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F215" t="n">
+        <v>40.3537344</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-74.5889421</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
@@ -5829,9 +7128,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F216" t="n">
+        <v>40.33484199999999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-74.5518436</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="A217" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
@@ -5854,9 +7159,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F217" t="n">
+        <v>40.3267674</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-74.551046</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="A218" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
@@ -5879,9 +7190,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F218" t="n">
+        <v>40.3225276</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-74.5767568</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="A219" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
@@ -5904,9 +7221,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F219" t="n">
+        <v>40.3266266</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-74.55084239999999</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="A220" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
@@ -5929,9 +7252,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F220" t="n">
+        <v>40.3387357</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-74.5526139</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="A221" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
@@ -5954,9 +7283,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F221" t="n">
+        <v>40.32909859999999</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-74.6121665</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="A222" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
@@ -5979,9 +7314,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F222" t="n">
+        <v>40.3319128</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-74.5753921</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="A223" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
@@ -6004,9 +7345,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F223" t="n">
+        <v>40.3271187</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-74.54970659999999</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="A224" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
@@ -6029,9 +7376,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F224" t="n">
+        <v>40.32483390000001</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-74.5579032</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="A225" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
@@ -6054,9 +7407,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F225" t="n">
+        <v>40.3260997</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-74.5657319</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="A226" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
@@ -6079,9 +7438,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F226" t="n">
+        <v>40.3466074</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-74.5901885</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="A227" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
@@ -6104,9 +7469,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F227" t="n">
+        <v>40.32778649999999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-74.5502075</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="A228" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
@@ -6129,9 +7500,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F228" t="n">
+        <v>40.3116366</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-74.57265819999999</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="A229" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
@@ -6154,9 +7531,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F229" t="n">
+        <v>40.3523614</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-74.6192988</v>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="A230" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
@@ -6179,9 +7562,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F230" t="n">
+        <v>40.3569741</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-74.57933319999999</v>
+      </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="A231" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
@@ -6204,9 +7593,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F231" t="n">
+        <v>40.3432073</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-74.5690216</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="A232" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
@@ -6229,9 +7624,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F232" t="n">
+        <v>40.3256419</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-74.60213779999999</v>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="A233" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
@@ -6254,9 +7655,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F233" t="n">
+        <v>40.3351177</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-74.57942299999999</v>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="A234" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
@@ -6279,9 +7686,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F234" t="n">
+        <v>40.3305063</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-74.5501285</v>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="A235" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
@@ -6304,9 +7717,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F235" t="n">
+        <v>40.3344039</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-74.5500586</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="A236" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
@@ -6329,9 +7748,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F236" t="n">
+        <v>40.3420533</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-74.55828369999999</v>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="A237" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="inlineStr">
@@ -6354,9 +7779,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F237" t="n">
+        <v>40.3340591</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-74.554956</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="A238" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
@@ -6379,9 +7810,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F238" t="n">
+        <v>40.35194389999999</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-74.6236196</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="A239" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
@@ -6404,9 +7841,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F239" t="n">
+        <v>40.3291477</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-74.5630175</v>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="A240" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
@@ -6429,9 +7872,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F240" t="n">
+        <v>40.3307589</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-74.6113393</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="A241" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
@@ -6454,9 +7903,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F241" t="n">
+        <v>40.3317168</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-74.5571987</v>
+      </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="A242" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
@@ -6479,9 +7934,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F242" t="n">
+        <v>40.331582</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-74.5966428</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="A243" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
@@ -6504,9 +7965,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F243" t="n">
+        <v>40.3255304</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-74.5515946</v>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="A244" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
@@ -6529,9 +7996,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F244" t="n">
+        <v>40.3353833</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-74.548506</v>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="A245" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
@@ -6554,9 +8027,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F245" t="n">
+        <v>40.329353</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-74.59730470000001</v>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="A246" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
@@ -6579,9 +8058,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F246" t="n">
+        <v>40.3315427</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-74.55106549999999</v>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="A247" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
@@ -6604,9 +8089,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F247" t="n">
+        <v>40.3239645</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-74.5547948</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="A248" t="n">
         <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
@@ -6629,9 +8120,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F248" t="n">
+        <v>40.3545737</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-74.58095879999999</v>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="A249" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
@@ -6654,9 +8151,15 @@
           <t>Sheth</t>
         </is>
       </c>
+      <c r="F249" t="n">
+        <v>40.3569779</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-74.5790051</v>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="A250" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
@@ -6679,9 +8182,15 @@
           <t>Solanki</t>
         </is>
       </c>
+      <c r="F250" t="n">
+        <v>40.3278952</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-74.56493669999999</v>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="A251" t="n">
         <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
@@ -6704,9 +8213,15 @@
           <t>Solanki</t>
         </is>
       </c>
+      <c r="F251" t="n">
+        <v>40.3346436</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-74.5572444</v>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="A252" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="inlineStr">
@@ -6729,9 +8244,15 @@
           <t>Solanki</t>
         </is>
       </c>
+      <c r="F252" t="n">
+        <v>40.33161560000001</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-74.5759205</v>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="A253" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
@@ -6754,9 +8275,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F253" t="n">
+        <v>40.323953</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-74.5549029</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="A254" t="n">
         <v>252</v>
       </c>
       <c r="B254" t="inlineStr">
@@ -6779,9 +8306,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F254" t="n">
+        <v>40.3248528</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-74.5581438</v>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="A255" t="n">
         <v>253</v>
       </c>
       <c r="B255" t="inlineStr">
@@ -6804,9 +8337,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F255" t="n">
+        <v>40.3254664</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-74.56992190000001</v>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="A256" t="n">
         <v>254</v>
       </c>
       <c r="B256" t="inlineStr">
@@ -6829,9 +8368,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F256" t="n">
+        <v>40.3251616</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-74.55723789999999</v>
+      </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="A257" t="n">
         <v>255</v>
       </c>
       <c r="B257" t="inlineStr">
@@ -6854,9 +8399,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F257" t="n">
+        <v>40.3262749</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-74.5681371</v>
+      </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="n">
+      <c r="A258" t="n">
         <v>256</v>
       </c>
       <c r="B258" t="inlineStr">
@@ -6879,9 +8430,15 @@
           <t>Soni</t>
         </is>
       </c>
+      <c r="F258" t="n">
+        <v>40.333437</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-74.5548161</v>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="n">
+      <c r="A259" t="n">
         <v>257</v>
       </c>
       <c r="B259" t="inlineStr">
@@ -6904,9 +8461,15 @@
           <t>Soni</t>
         </is>
       </c>
+      <c r="F259" t="n">
+        <v>40.3291724</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-74.6175973</v>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="n">
+      <c r="A260" t="n">
         <v>258</v>
       </c>
       <c r="B260" t="inlineStr">
@@ -6929,9 +8492,15 @@
           <t>Soni</t>
         </is>
       </c>
+      <c r="F260" t="n">
+        <v>40.3287816</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-74.5585876</v>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="A261" t="n">
         <v>259</v>
       </c>
       <c r="B261" t="inlineStr">
@@ -6954,9 +8523,15 @@
           <t>Choksi</t>
         </is>
       </c>
+      <c r="F261" t="n">
+        <v>40.3412709</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-74.56689299999999</v>
+      </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n">
+      <c r="A262" t="n">
         <v>260</v>
       </c>
       <c r="B262" t="inlineStr">
@@ -6979,9 +8554,15 @@
           <t>Choksi</t>
         </is>
       </c>
+      <c r="F262" t="n">
+        <v>40.357007</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-74.58150900000001</v>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="n">
+      <c r="A263" t="n">
         <v>261</v>
       </c>
       <c r="B263" t="inlineStr">
@@ -7004,9 +8585,15 @@
           <t>Choksi</t>
         </is>
       </c>
+      <c r="F263" t="n">
+        <v>40.3253642</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-74.56596499999999</v>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="n">
+      <c r="A264" t="n">
         <v>262</v>
       </c>
       <c r="B264" t="inlineStr">
@@ -7029,9 +8616,15 @@
           <t>Kadakia</t>
         </is>
       </c>
+      <c r="F264" t="n">
+        <v>40.3327918</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-74.5505163</v>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="n">
+      <c r="A265" t="n">
         <v>263</v>
       </c>
       <c r="B265" t="inlineStr">
@@ -7054,9 +8647,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F265" t="n">
+        <v>40.3423113</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-74.5596139</v>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="n">
+      <c r="A266" t="n">
         <v>264</v>
       </c>
       <c r="B266" t="inlineStr">
@@ -7079,9 +8678,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F266" t="n">
+        <v>40.31985299999999</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-74.59569850000001</v>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="n">
+      <c r="A267" t="n">
         <v>265</v>
       </c>
       <c r="B267" t="inlineStr">
@@ -7104,9 +8709,15 @@
           <t>Dalal</t>
         </is>
       </c>
+      <c r="F267" t="n">
+        <v>40.3287105</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-74.56442849999999</v>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="n">
+      <c r="A268" t="n">
         <v>266</v>
       </c>
       <c r="B268" t="inlineStr">
@@ -7129,9 +8740,15 @@
           <t>Dalal</t>
         </is>
       </c>
+      <c r="F268" t="n">
+        <v>40.32733169999999</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-74.55228339999999</v>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="n">
+      <c r="A269" t="n">
         <v>267</v>
       </c>
       <c r="B269" t="inlineStr">
@@ -7154,9 +8771,15 @@
           <t>Dalal</t>
         </is>
       </c>
+      <c r="F269" t="n">
+        <v>40.3276258</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-74.55060039999999</v>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="n">
+      <c r="A270" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="inlineStr">
@@ -7179,9 +8802,15 @@
           <t>Dalal</t>
         </is>
       </c>
+      <c r="F270" t="n">
+        <v>40.3270979</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-74.5675122</v>
+      </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="n">
+      <c r="A271" t="n">
         <v>269</v>
       </c>
       <c r="B271" t="inlineStr">
@@ -7204,9 +8833,15 @@
           <t>Doshi</t>
         </is>
       </c>
+      <c r="F271" t="n">
+        <v>40.3462694</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-74.5908403</v>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="n">
+      <c r="A272" t="n">
         <v>270</v>
       </c>
       <c r="B272" t="inlineStr">
@@ -7229,9 +8864,15 @@
           <t>Doshi</t>
         </is>
       </c>
+      <c r="F272" t="n">
+        <v>40.3565605</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-74.58323679999999</v>
+      </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="n">
+      <c r="A273" t="n">
         <v>271</v>
       </c>
       <c r="B273" t="inlineStr">
@@ -7254,9 +8895,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F273" t="n">
+        <v>40.3340792</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-74.5511506</v>
+      </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="n">
+      <c r="A274" t="n">
         <v>272</v>
       </c>
       <c r="B274" t="inlineStr">
@@ -7279,9 +8926,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F274" t="n">
+        <v>40.3298222</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-74.56448640000001</v>
+      </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="n">
+      <c r="A275" t="n">
         <v>273</v>
       </c>
       <c r="B275" t="inlineStr">
@@ -7304,9 +8957,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F275" t="n">
+        <v>40.33285</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-74.57497069999999</v>
+      </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="n">
+      <c r="A276" t="n">
         <v>274</v>
       </c>
       <c r="B276" t="inlineStr">
@@ -7329,9 +8988,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F276" t="n">
+        <v>40.350643</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-74.5863667</v>
+      </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="n">
+      <c r="A277" t="n">
         <v>275</v>
       </c>
       <c r="B277" t="inlineStr">
@@ -7354,9 +9019,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F277" t="n">
+        <v>40.3307927</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-74.58394699999999</v>
+      </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="n">
+      <c r="A278" t="n">
         <v>276</v>
       </c>
       <c r="B278" t="inlineStr">
@@ -7379,9 +9050,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F278" t="n">
+        <v>40.3294358</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-74.5972271</v>
+      </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="A279" t="n">
         <v>277</v>
       </c>
       <c r="B279" t="inlineStr">
@@ -7404,9 +9081,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F279" t="n">
+        <v>40.3557403</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-74.58328</v>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="n">
+      <c r="A280" t="n">
         <v>278</v>
       </c>
       <c r="B280" t="inlineStr">
@@ -7429,9 +9112,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F280" t="n">
+        <v>40.3536699</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-74.6207886</v>
+      </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="n">
+      <c r="A281" t="n">
         <v>279</v>
       </c>
       <c r="B281" t="inlineStr">
@@ -7454,9 +9143,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F281" t="n">
+        <v>40.3300549</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-74.56558009999999</v>
+      </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="A282" t="n">
         <v>280</v>
       </c>
       <c r="B282" t="inlineStr">
@@ -7479,9 +9174,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F282" t="n">
+        <v>40.3333987</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-74.54975929999999</v>
+      </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="A283" t="n">
         <v>281</v>
       </c>
       <c r="B283" t="inlineStr">
@@ -7504,9 +9205,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F283" t="n">
+        <v>40.3307308</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-74.57614529999999</v>
+      </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="n">
+      <c r="A284" t="n">
         <v>282</v>
       </c>
       <c r="B284" t="inlineStr">
@@ -7529,9 +9236,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F284" t="n">
+        <v>40.3570497</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-74.615308</v>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="n">
+      <c r="A285" t="n">
         <v>283</v>
       </c>
       <c r="B285" t="inlineStr">
@@ -7554,9 +9267,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F285" t="n">
+        <v>40.3570505</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-74.58326719999999</v>
+      </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="n">
+      <c r="A286" t="n">
         <v>284</v>
       </c>
       <c r="B286" t="inlineStr">
@@ -7579,9 +9298,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F286" t="n">
+        <v>40.3284482</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-74.5606466</v>
+      </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="n">
+      <c r="A287" t="n">
         <v>285</v>
       </c>
       <c r="B287" t="inlineStr">
@@ -7604,9 +9329,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F287" t="n">
+        <v>40.321571</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-74.56767019999999</v>
+      </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="n">
+      <c r="A288" t="n">
         <v>286</v>
       </c>
       <c r="B288" t="inlineStr">
@@ -7629,9 +9360,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F288" t="n">
+        <v>40.3281514</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-74.5587548</v>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="n">
+      <c r="A289" t="n">
         <v>287</v>
       </c>
       <c r="B289" t="inlineStr">
@@ -7654,9 +9391,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F289" t="n">
+        <v>40.3380404</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-74.5555967</v>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="n">
+      <c r="A290" t="n">
         <v>288</v>
       </c>
       <c r="B290" t="inlineStr">
@@ -7679,9 +9422,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F290" t="n">
+        <v>40.33512109999999</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-74.55033750000001</v>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="n">
+      <c r="A291" t="n">
         <v>289</v>
       </c>
       <c r="B291" t="inlineStr">
@@ -7704,9 +9453,15 @@
           <t>Purohit</t>
         </is>
       </c>
+      <c r="F291" t="n">
+        <v>40.3559487</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-74.57692849999999</v>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="n">
+      <c r="A292" t="n">
         <v>290</v>
       </c>
       <c r="B292" t="inlineStr">
@@ -7729,9 +9484,15 @@
           <t>Purohit</t>
         </is>
       </c>
+      <c r="F292" t="n">
+        <v>40.3330409</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-74.5970019</v>
+      </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="n">
+      <c r="A293" t="n">
         <v>291</v>
       </c>
       <c r="B293" t="inlineStr">
@@ -7754,9 +9515,15 @@
           <t>Raval</t>
         </is>
       </c>
+      <c r="F293" t="n">
+        <v>40.3237301</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-74.55530949999999</v>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="n">
+      <c r="A294" t="n">
         <v>292</v>
       </c>
       <c r="B294" t="inlineStr">
@@ -7779,9 +9546,15 @@
           <t>Shroff</t>
         </is>
       </c>
+      <c r="F294" t="n">
+        <v>40.3268743</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-74.56927209999999</v>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="n">
+      <c r="A295" t="n">
         <v>293</v>
       </c>
       <c r="B295" t="inlineStr">
@@ -7804,9 +9577,15 @@
           <t>Shroff</t>
         </is>
       </c>
+      <c r="F295" t="n">
+        <v>40.3284509</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-74.56323999999999</v>
+      </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="n">
+      <c r="A296" t="n">
         <v>294</v>
       </c>
       <c r="B296" t="inlineStr">
@@ -7829,9 +9608,15 @@
           <t>Shroff</t>
         </is>
       </c>
+      <c r="F296" t="n">
+        <v>40.3350867</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-74.5972646</v>
+      </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="n">
+      <c r="A297" t="n">
         <v>295</v>
       </c>
       <c r="B297" t="inlineStr">
@@ -7854,9 +9639,15 @@
           <t>Virani</t>
         </is>
       </c>
+      <c r="F297" t="n">
+        <v>40.3395826</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-74.5685385</v>
+      </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="n">
+      <c r="A298" t="n">
         <v>296</v>
       </c>
       <c r="B298" t="inlineStr">
@@ -7879,9 +9670,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F298" t="n">
+        <v>40.3544031</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-74.61913629999999</v>
+      </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="n">
+      <c r="A299" t="n">
         <v>297</v>
       </c>
       <c r="B299" t="inlineStr">
@@ -7904,9 +9701,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F299" t="n">
+        <v>40.3295633</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-74.61356780000001</v>
+      </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="n">
+      <c r="A300" t="n">
         <v>298</v>
       </c>
       <c r="B300" t="inlineStr">
@@ -7929,9 +9732,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F300" t="n">
+        <v>40.3497401</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-74.6210523</v>
+      </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="n">
+      <c r="A301" t="n">
         <v>299</v>
       </c>
       <c r="B301" t="inlineStr">
@@ -7954,9 +9763,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F301" t="n">
+        <v>40.3342766</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-74.5795566</v>
+      </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="n">
+      <c r="A302" t="n">
         <v>300</v>
       </c>
       <c r="B302" t="inlineStr">
@@ -7979,9 +9794,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F302" t="n">
+        <v>40.3295988</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-74.5648822</v>
+      </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="n">
+      <c r="A303" t="n">
         <v>301</v>
       </c>
       <c r="B303" t="inlineStr">
@@ -8004,9 +9825,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F303" t="n">
+        <v>40.3289392</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-74.55860609999999</v>
+      </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="n">
+      <c r="A304" t="n">
         <v>302</v>
       </c>
       <c r="B304" t="inlineStr">
@@ -8029,9 +9856,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F304" t="n">
+        <v>40.326768</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-74.5676108</v>
+      </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="n">
+      <c r="A305" t="n">
         <v>303</v>
       </c>
       <c r="B305" t="inlineStr">
@@ -8054,9 +9887,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F305" t="n">
+        <v>40.32533859999999</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-74.5699358</v>
+      </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="n">
+      <c r="A306" t="n">
         <v>304</v>
       </c>
       <c r="B306" t="inlineStr">
@@ -8079,9 +9918,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F306" t="n">
+        <v>40.3333013</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-74.55042109999999</v>
+      </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="n">
+      <c r="A307" t="n">
         <v>305</v>
       </c>
       <c r="B307" t="inlineStr">
@@ -8104,9 +9949,15 @@
           <t>Chauhan</t>
         </is>
       </c>
+      <c r="F307" t="n">
+        <v>40.32845500000001</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-74.56374289999999</v>
+      </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="n">
+      <c r="A308" t="n">
         <v>306</v>
       </c>
       <c r="B308" t="inlineStr">
@@ -8129,9 +9980,15 @@
           <t>Rana</t>
         </is>
       </c>
+      <c r="F308" t="n">
+        <v>40.3302166</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-74.6176045</v>
+      </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="n">
+      <c r="A309" t="n">
         <v>307</v>
       </c>
       <c r="B309" t="inlineStr">
@@ -8154,9 +10011,15 @@
           <t>Rana</t>
         </is>
       </c>
+      <c r="F309" t="n">
+        <v>40.3480754</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-74.6214559</v>
+      </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="n">
+      <c r="A310" t="n">
         <v>308</v>
       </c>
       <c r="B310" t="inlineStr">
@@ -8179,9 +10042,15 @@
           <t>Rana</t>
         </is>
       </c>
+      <c r="F310" t="n">
+        <v>40.3262885</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-74.553484</v>
+      </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="n">
+      <c r="A311" t="n">
         <v>309</v>
       </c>
       <c r="B311" t="inlineStr">
@@ -8204,9 +10073,15 @@
           <t>Rawal</t>
         </is>
       </c>
+      <c r="F311" t="n">
+        <v>40.3308429</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-74.5654996</v>
+      </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="n">
+      <c r="A312" t="n">
         <v>310</v>
       </c>
       <c r="B312" t="inlineStr">
@@ -8229,9 +10104,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F312" t="n">
+        <v>40.3510461</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-74.62087339999999</v>
+      </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="n">
+      <c r="A313" t="n">
         <v>311</v>
       </c>
       <c r="B313" t="inlineStr">
@@ -8254,9 +10135,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F313" t="n">
+        <v>40.3348964</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-74.55021050000001</v>
+      </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="n">
+      <c r="A314" t="n">
         <v>312</v>
       </c>
       <c r="B314" t="inlineStr">
@@ -8279,9 +10166,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F314" t="n">
+        <v>40.3263063</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-74.56866250000002</v>
+      </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="n">
+      <c r="A315" t="n">
         <v>313</v>
       </c>
       <c r="B315" t="inlineStr">
@@ -8304,9 +10197,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F315" t="n">
+        <v>40.3288687</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-74.5795631</v>
+      </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="n">
+      <c r="A316" t="n">
         <v>314</v>
       </c>
       <c r="B316" t="inlineStr">
@@ -8329,9 +10228,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F316" t="n">
+        <v>40.3302883</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-74.59780929999999</v>
+      </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="n">
+      <c r="A317" t="n">
         <v>315</v>
       </c>
       <c r="B317" t="inlineStr">
@@ -8354,9 +10259,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F317" t="n">
+        <v>40.3255675</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-74.55901829999999</v>
+      </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="n">
+      <c r="A318" t="n">
         <v>316</v>
       </c>
       <c r="B318" t="inlineStr">
@@ -8379,9 +10290,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F318" t="n">
+        <v>40.3506956</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-74.619687</v>
+      </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="n">
+      <c r="A319" t="n">
         <v>317</v>
       </c>
       <c r="B319" t="inlineStr">
@@ -8404,9 +10321,15 @@
           <t>Rawal</t>
         </is>
       </c>
+      <c r="F319" t="n">
+        <v>40.3308429</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-74.5654996</v>
+      </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="n">
+      <c r="A320" t="n">
         <v>318</v>
       </c>
       <c r="B320" t="inlineStr">
@@ -8429,9 +10352,15 @@
           <t>Darji</t>
         </is>
       </c>
+      <c r="F320" t="n">
+        <v>40.3283511</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-74.5515915</v>
+      </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="n">
+      <c r="A321" t="n">
         <v>319</v>
       </c>
       <c r="B321" t="inlineStr">
@@ -8454,9 +10383,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F321" t="n">
+        <v>40.3324802</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-74.5749479</v>
+      </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="n">
+      <c r="A322" t="n">
         <v>320</v>
       </c>
       <c r="B322" t="inlineStr">
@@ -8479,9 +10414,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F322" t="n">
+        <v>40.3338753</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-74.57847989999999</v>
+      </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="n">
+      <c r="A323" t="n">
         <v>321</v>
       </c>
       <c r="B323" t="inlineStr">
@@ -8504,9 +10445,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F323" t="n">
+        <v>40.32726</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-74.55159639999999</v>
+      </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="n">
+      <c r="A324" t="n">
         <v>322</v>
       </c>
       <c r="B324" t="inlineStr">
@@ -8529,9 +10476,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F324" t="n">
+        <v>40.32647559999999</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-74.5687454</v>
+      </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="n">
+      <c r="A325" t="n">
         <v>323</v>
       </c>
       <c r="B325" t="inlineStr">
@@ -8554,9 +10507,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F325" t="n">
+        <v>40.3296694</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-74.5652029</v>
+      </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="n">
+      <c r="A326" t="n">
         <v>324</v>
       </c>
       <c r="B326" t="inlineStr">
@@ -8579,9 +10538,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F326" t="n">
+        <v>40.331098</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-74.5502741</v>
+      </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="n">
+      <c r="A327" t="n">
         <v>325</v>
       </c>
       <c r="B327" t="inlineStr">
@@ -8604,9 +10569,15 @@
           <t>Javeri</t>
         </is>
       </c>
+      <c r="F327" t="n">
+        <v>40.3427585</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-74.5585408</v>
+      </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="n">
+      <c r="A328" t="n">
         <v>326</v>
       </c>
       <c r="B328" t="inlineStr">
@@ -8628,6 +10599,12 @@
         <is>
           <t>Javeri</t>
         </is>
+      </c>
+      <c r="F328" t="n">
+        <v>40.3349676</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-74.5532068</v>
       </c>
     </row>
   </sheetData>
